--- a/data/trans_bre/P12A-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P12A-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-7,14</t>
+          <t>-6,84</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,89</t>
+          <t>-5,55</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>-5,4</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-8,94%</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-48,23%</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-41,13%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>-47,38%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-38,93%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-36,12%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7,1%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>12,63%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 5,96</t>
+          <t>-7,95; 7,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,85; -0,79</t>
+          <t>-13,77; -0,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,96; 1,46</t>
+          <t>-13,46; 1,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,11; 10,81</t>
+          <t>-15,35; 2,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-53,64; 72,33</t>
+          <t>-10,63; 12,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-72,28; -4,49</t>
+          <t>-7,41; 10,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-70,55; 17,11</t>
+          <t>-50,5; 94,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-47,19; 97,23</t>
+          <t>-73,16; -0,89</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-70,18; 13,13</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-69,87; 32,38</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-47,17; 107,46</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-42,03; 145,01</t>
         </is>
       </c>
     </row>
@@ -725,37 +797,57 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-5,91</t>
+          <t>-6,45</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-6,34</t>
+          <t>-6,7</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>1,87</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>3,27</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-26,9%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-54,14%</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-45,21%</t>
+          <t>-26,99%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>39,59%</t>
+          <t>-55,98%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-46,02%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>16,82%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>39,64%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>9,68%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 3,77</t>
+          <t>-8,47; 2,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,47; -0,55</t>
+          <t>-15,87; -1,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-15,82; -0,15</t>
+          <t>-16,22; 0,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 10,17</t>
+          <t>-14,04; 10,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-65,0; 74,11</t>
+          <t>-4,24; 9,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-82,18; -0,19</t>
+          <t>-7,43; 9,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-75,98; 3,02</t>
+          <t>-68,81; 59,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-33,03; 243,57</t>
+          <t>-83,65; -8,8</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-74,29; 5,12</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-64,67; 197,5</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-33,74; 211,99</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-45,68; 123,22</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>25,06%</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,95%</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>14,1%</t>
+          <t>22,06%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>-3,66%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>26,16%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>6,68%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>9,57%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-6,04%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 6,41</t>
+          <t>-6,29; 7,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 4,4</t>
+          <t>-6,74; 4,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,85; 6,25</t>
+          <t>-6,17; 7,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 7,75</t>
+          <t>-4,95; 6,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-51,16; 119,95</t>
+          <t>-6,79; 6,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-44,44; 51,73</t>
+          <t>-8,61; 6,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-56,91; 106,45</t>
+          <t>-47,99; 126,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-36,9; 77,79</t>
+          <t>-43,56; 58,55</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-46,04; 130,23</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-37,95; 78,17</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-38,19; 67,12</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-47,31; 56,2</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,74</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-9,81</t>
+          <t>7,08</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>29,98%</t>
+          <t>-9,82</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,57%</t>
+          <t>27,83%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-35,13%</t>
+          <t>21,12%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>20,08%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>45,89%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-35,15%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-2,35%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 9,52</t>
+          <t>-2,58; 9,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 7,73</t>
+          <t>-2,63; 7,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 8,48</t>
+          <t>-2,48; 8,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-18,85; -2,06</t>
+          <t>0,93; 13,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,74; 102,12</t>
+          <t>-17,82; -1,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,61; 76,26</t>
+          <t>-8,58; 7,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-16,9; 71,21</t>
+          <t>-16,29; 97,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-56,49; -7,85</t>
+          <t>-18,5; 73,38</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-15,25; 81,64</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>3,98; 114,45</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-54,18; -3,5</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-35,24; 45,54</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,35</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-8,74</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>-8,73</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>-12,26</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-10,71%</t>
+          <t>9,97%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-23,97%</t>
+          <t>2,47%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-11,24%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>7,03%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-23,96%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-31,97%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 8,49</t>
+          <t>-5,64; 8,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 7,12</t>
+          <t>-6,79; 7,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 4,78</t>
+          <t>-10,21; 4,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-18,1; 0,39</t>
+          <t>-7,39; 9,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-31,99; 66,25</t>
+          <t>-19,07; 0,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-28,9; 47,62</t>
+          <t>-21,04; -2,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-38,39; 25,82</t>
+          <t>-28,34; 70,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-42,77; 1,54</t>
+          <t>-29,84; 46,93</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-38,6; 26,35</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-29,51; 58,94</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-44,08; 3,54</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-49,39; -7,77</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>8,87</t>
+          <t>7,73</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>4,13</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-2,71</t>
+          <t>9,47</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>11,67%</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>44,54%</t>
+          <t>-8,52</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>16,16%</t>
+          <t>18,64%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-9,33%</t>
+          <t>38,42%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>18,15%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>49,0%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-9,28%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-22,54%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 12,02</t>
+          <t>-5,48; 14,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 18,96</t>
+          <t>-1,0; 16,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 13,19</t>
+          <t>-4,99; 12,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-14,24; 7,97</t>
+          <t>-1,78; 19,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-28,5; 65,67</t>
+          <t>-14,02; 8,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 116,44</t>
+          <t>-19,93; 2,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-19,81; 71,68</t>
+          <t>-19,07; 87,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-41,95; 33,71</t>
+          <t>-4,57; 112,71</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-18,55; 71,02</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-9,3; 146,48</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-40,23; 36,16</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-46,15; 6,7</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>3,41</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>-1,91</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>14,18%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>-2,08</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,77%</t>
+          <t>17,61%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-8,84%</t>
+          <t>2,34%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-0,2%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>22,62%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-8,86%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-9,41%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 4,98</t>
+          <t>-0,77; 5,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 3,46</t>
+          <t>-2,67; 3,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 2,97</t>
+          <t>-3,08; 3,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 2,29</t>
+          <t>-0,91; 6,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 42,09</t>
+          <t>-6,08; 2,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,23; 25,82</t>
+          <t>-5,81; 1,74</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-19,98; 21,47</t>
+          <t>-5,29; 43,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-23,37; 12,34</t>
+          <t>-16,27; 24,37</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-18,02; 22,13</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-5,53; 49,26</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-25,99; 10,7</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-23,75; 9,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
